--- a/public/static/index/上传数据标准模板.xlsx
+++ b/public/static/index/上传数据标准模板.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qiu\Desktop\W工作文件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F1C5D-95F8-47D0-807B-B6EFD4CE0798}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>结果报告</t>
   </si>
@@ -119,14 +113,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DYS635a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DYS635b</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>DYF387Sb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -152,16 +138,20 @@
   </si>
   <si>
     <t>注意事项：请认真填写并且检查数据是否正确。</t>
+  </si>
+  <si>
+    <t>DYS635</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,26 +667,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="22.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -707,7 +697,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -722,25 +712,25 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -749,9 +739,9 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -759,7 +749,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="14.25">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -769,7 +759,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="14.25">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -779,7 +769,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -789,7 +779,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -799,19 +789,19 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="14.25">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="14.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -821,7 +811,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="14.25">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -831,7 +821,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="14.25">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -841,7 +831,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -851,7 +841,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
@@ -861,7 +851,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="14.25">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
@@ -871,7 +861,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="14.25">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
@@ -881,7 +871,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -891,7 +881,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="14.25">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -901,7 +891,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="14.25">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
@@ -911,7 +901,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="14.25">
       <c r="A21" s="9" t="s">
         <v>3</v>
       </c>
@@ -921,7 +911,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="14.25">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -931,7 +921,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="14.25">
       <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
@@ -941,7 +931,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="14.25">
       <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
@@ -951,7 +941,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="14.25">
       <c r="A25" s="9" t="s">
         <v>16</v>
       </c>
@@ -961,7 +951,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="14.25">
       <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
@@ -971,7 +961,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="14.25">
       <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
@@ -981,7 +971,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="14.25">
       <c r="A28" s="9" t="s">
         <v>19</v>
       </c>
@@ -991,7 +981,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="14.25">
       <c r="A29" s="9" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +991,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="14.25">
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
@@ -1011,9 +1001,9 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="14.25">
       <c r="A31" s="9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
@@ -1021,25 +1011,15 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="14.25">
       <c r="A32" s="9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A4:A33">

--- a/public/static/index/上传数据标准模板.xlsx
+++ b/public/static/index/上传数据标准模板.xlsx
@@ -82,9 +82,6 @@
     <t>DYS449</t>
   </si>
   <si>
-    <t>DYS527</t>
-  </si>
-  <si>
     <t>DYF387Sa</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -105,14 +102,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DYS481a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DYS481b</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>DYF387Sb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -141,6 +130,18 @@
   </si>
   <si>
     <t>DYS635</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DYS481</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DYS527b</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DYS527a</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -670,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -686,7 +687,7 @@
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -717,22 +718,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -741,7 +742,7 @@
     </row>
     <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -761,7 +762,7 @@
     </row>
     <row r="7" spans="1:11" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -771,7 +772,7 @@
     </row>
     <row r="8" spans="1:11" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -781,7 +782,7 @@
     </row>
     <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -791,10 +792,10 @@
     </row>
     <row r="10" spans="1:11" ht="14.25">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -923,7 +924,7 @@
     </row>
     <row r="23" spans="1:6" ht="14.25">
       <c r="A23" s="9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
@@ -933,9 +934,9 @@
     </row>
     <row r="24" spans="1:6" ht="14.25">
       <c r="A24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -943,7 +944,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.25">
       <c r="A25" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="4"/>
@@ -953,7 +954,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.25">
       <c r="A26" s="9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="4"/>
@@ -1003,7 +1004,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.25">
       <c r="A31" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>

--- a/public/static/index/上传数据标准模板.xlsx
+++ b/public/static/index/上传数据标准模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
@@ -49,9 +49,6 @@
     <t>DYS390</t>
   </si>
   <si>
-    <t>DYS19</t>
-  </si>
-  <si>
     <t>GATA_H4</t>
   </si>
   <si>
@@ -80,30 +77,6 @@
   </si>
   <si>
     <t>DYS449</t>
-  </si>
-  <si>
-    <t>DYF387Sa</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DYS385a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DYS385b</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DYS389a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DYS389b</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DYF387Sb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>姓名A</t>
@@ -126,22 +99,55 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>注意事项：请认真填写并且检查数据是否正确。</t>
+    <t>DYS385b</t>
+  </si>
+  <si>
+    <t>DYS389a</t>
+  </si>
+  <si>
+    <t>DYS389b</t>
   </si>
   <si>
     <t>DYS635</t>
+  </si>
+  <si>
+    <t>DYF387Sa</t>
+  </si>
+  <si>
+    <t>DYF387Sb</t>
+  </si>
+  <si>
+    <t>DYS481a</t>
+  </si>
+  <si>
+    <t>DYS481b</t>
+  </si>
+  <si>
+    <t>DYS527</t>
+  </si>
+  <si>
+    <r>
+      <t>注意事项：请认真填写并且检查数据是否正确。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基因座红色的基因是必填选项。</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DYS481</t>
+    <t>DYS19</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DYS527b</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DYS527a</t>
+    <t>DYS385a</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +234,23 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -309,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +361,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -371,14 +397,6 @@
       <color rgb="FF009900"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -671,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -682,58 +700,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="14.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
+      <c r="A4" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -741,8 +759,8 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="14.25">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
+      <c r="A5" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -751,8 +769,8 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="14.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
+      <c r="A6" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -761,8 +779,8 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="14.25">
-      <c r="A7" s="9" t="s">
-        <v>23</v>
+      <c r="A7" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -771,8 +789,8 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="14.25">
-      <c r="A8" s="9" t="s">
-        <v>24</v>
+      <c r="A8" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -781,8 +799,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="14.25">
-      <c r="A9" s="9" t="s">
-        <v>25</v>
+      <c r="A9" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -791,11 +809,11 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="14.25">
-      <c r="A10" s="9" t="s">
-        <v>26</v>
+      <c r="A10" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -803,8 +821,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="14.25">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
+      <c r="A11" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -813,8 +831,8 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="14.25">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
+      <c r="A12" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -823,8 +841,8 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="14.25">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
+      <c r="A13" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -833,8 +851,8 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="14.25">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
+      <c r="A14" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -843,8 +861,8 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="14.25">
-      <c r="A15" s="9" t="s">
-        <v>5</v>
+      <c r="A15" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -853,7 +871,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="14.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
@@ -863,8 +881,8 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="14.25">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
+      <c r="A17" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
@@ -873,8 +891,8 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="14.25">
-      <c r="A18" s="9" t="s">
-        <v>15</v>
+      <c r="A18" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
@@ -883,8 +901,8 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="14.25">
-      <c r="A19" s="9" t="s">
-        <v>21</v>
+      <c r="A19" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
@@ -893,8 +911,8 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="14.25">
-      <c r="A20" s="9" t="s">
-        <v>8</v>
+      <c r="A20" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
@@ -904,7 +922,7 @@
     </row>
     <row r="21" spans="1:6" ht="14.25">
       <c r="A21" s="9" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
@@ -914,7 +932,7 @@
     </row>
     <row r="22" spans="1:6" ht="14.25">
       <c r="A22" s="9" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
@@ -924,7 +942,7 @@
     </row>
     <row r="23" spans="1:6" ht="14.25">
       <c r="A23" s="9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
@@ -934,7 +952,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.25">
       <c r="A24" s="9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="4"/>
@@ -944,7 +962,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.25">
       <c r="A25" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="4"/>
@@ -954,7 +972,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.25">
       <c r="A26" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="4"/>
@@ -964,7 +982,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.25">
       <c r="A27" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="4"/>
@@ -974,7 +992,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.25">
       <c r="A28" s="9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="4"/>
@@ -984,7 +1002,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.25">
       <c r="A29" s="9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
@@ -994,7 +1012,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.25">
       <c r="A30" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="4"/>
@@ -1004,7 +1022,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.25">
       <c r="A31" s="9" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
@@ -1033,6 +1051,6 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>